--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -168,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,6 +178,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,11 +216,11 @@
   </sheetPr>
   <dimension ref="A1:O869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -258,7 +262,7 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -266,7 +270,7 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="C2" s="2" t="n">
@@ -281,10 +285,10 @@
       <c r="F2" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>123</v>
       </c>
       <c r="J2" s="2" t="n">
@@ -293,7 +297,7 @@
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>0.999305555555556</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -302,7 +306,7 @@
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -310,28 +314,28 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>432</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -339,28 +343,28 @@
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>453</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -383,10 +387,10 @@
       <c r="F5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>44138</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>0.423611111111111</v>
       </c>
     </row>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t xml:space="preserve">plan</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">mistake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send_id</t>
   </si>
   <si>
     <t xml:space="preserve">ちんこ</t>
@@ -214,13 +217,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O869"/>
+  <dimension ref="A1:P869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -265,10 +268,13 @@
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>2021</v>
@@ -295,13 +301,13 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>0.999305555555556</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -312,7 +318,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2020</v>
@@ -336,12 +342,12 @@
         <v>432</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2020</v>
@@ -365,12 +371,12 @@
         <v>453</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>2021</v>
@@ -396,88 +402,88 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G743" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G869" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t xml:space="preserve">plan</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">send_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer_id</t>
   </si>
   <si>
     <t xml:space="preserve">ちんこ</t>
@@ -217,13 +220,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P869"/>
+  <dimension ref="A1:Q869"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -268,13 +271,16 @@
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>2021</v>
@@ -301,13 +307,13 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>0.999305555555556</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="2" t="n">
         <v>0</v>
@@ -318,7 +324,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2020</v>
@@ -342,12 +348,12 @@
         <v>432</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2020</v>
@@ -371,12 +377,12 @@
         <v>453</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>2021</v>
@@ -402,88 +408,88 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G743" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G869" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">plan</t>
   </si>
@@ -222,8 +222,8 @@
   </sheetPr>
   <dimension ref="A1:Q869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,81 +406,8 @@
         <v>0.423611111111111</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G743" s="2" t="s">

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">plan</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">ちんこ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">明日</t>
   </si>
   <si>
     <t xml:space="preserve">ramen</t>
@@ -92,10 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="m\月d\日"/>
+    <numFmt numFmtId="165" formatCode="m\月d\日"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -174,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,11 +193,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,11 +224,11 @@
   </sheetPr>
   <dimension ref="A1:Q869"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:Q1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -274,7 +276,7 @@
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -306,10 +308,10 @@
       <c r="J2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="n">
+      <c r="K2" s="5" t="n">
+        <v>44137</v>
+      </c>
+      <c r="L2" s="6" t="n">
         <v>0.999305555555556</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -324,7 +326,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2020</v>
@@ -347,13 +349,13 @@
       <c r="I3" s="4" t="n">
         <v>432</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>18</v>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2020</v>
@@ -376,13 +378,13 @@
       <c r="I4" s="4" t="n">
         <v>453</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>2021</v>
@@ -399,10 +401,10 @@
       <c r="F5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="7" t="n">
         <v>44138</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="n">
         <v>0.423611111111111</v>
       </c>
     </row>
@@ -411,12 +413,12 @@
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G743" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G869" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
